--- a/biology/Zoologie/Isselicrinidae/Isselicrinidae.xlsx
+++ b/biology/Zoologie/Isselicrinidae/Isselicrinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Isselicrinidae sont une famille de Crinoïdes (Echinodermes) sessiles, de l'ordre des Isocrinida.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Isselicrinidae a été créée en 1977 par le paléontologue russe Vladimir Grigorievich Klikushin (d).
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des crinoïdes « vrais » : ils sont pourvus d'une longue tige calcaire articulée qui leur permet de porter leur thèque érigée. Cette tige est constituée d'articles internodaux alternant avec des articles nodaux, qui portent des cirrhes articulés et terminés par une griffe[1]. 
-Cette famille se distingue des autres Isocrinina par une cryptosyzygie entre les primibrachiaux 1 et 2 et secundibrachiaux 1 et 2 (et une articulation entre les secundibranchiaux 1 et 2 dans la sous-famille des Metacrininae)[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des crinoïdes « vrais » : ils sont pourvus d'une longue tige calcaire articulée qui leur permet de porter leur thèque érigée. Cette tige est constituée d'articles internodaux alternant avec des articles nodaux, qui portent des cirrhes articulés et terminés par une griffe. 
+Cette famille se distingue des autres Isocrinina par une cryptosyzygie entre les primibrachiaux 1 et 2 et secundibrachiaux 1 et 2 (et une articulation entre les secundibranchiaux 1 et 2 dans la sous-famille des Metacrininae). 
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (22 juin 2014)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (22 juin 2014) :
 sous-famille Diplocrininae Roux, 1981
 genre Cenocrinus Thomson, 1864 -- 1 espèce actuelle
 genre Endoxocrinus AH Clark, 1908 -- 5 espèces
